--- a/Wollongong Wolves Statistics Total.xlsx
+++ b/Wollongong Wolves Statistics Total.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\PycharmProjects\PlayerDashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A955FF1E-F419-4BB0-8F3D-61739B6E27AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDDF050-A798-40A7-BCBC-B6FE71F7849E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{291FCF99-A076-4714-9BE8-879351B19799}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{291FCF99-A076-4714-9BE8-879351B19799}"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="103">
   <si>
     <t>Name</t>
   </si>
@@ -768,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A9489E-A0FD-48AD-A7D2-8E2B03EF1B3F}">
-  <dimension ref="A1:BJ22"/>
+  <dimension ref="A1:BJ23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BI2" sqref="BI2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6256,6 +6256,255 @@
         <v>0.38750000000000001</v>
       </c>
     </row>
+    <row r="23" spans="1:62" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23">
+        <f>SUMIFS('Data Collection'!B:B, 'Data Collection'!A:A, Total!A23)</f>
+        <v>545</v>
+      </c>
+      <c r="C23" s="5">
+        <f>SUMIFS('Data Collection'!C:C, 'Data Collection'!A:A, Total!A23)</f>
+        <v>6</v>
+      </c>
+      <c r="D23" s="5">
+        <f>SUMIFS('Data Collection'!D:D, 'Data Collection'!A:A, Total!A23)</f>
+        <v>1.55</v>
+      </c>
+      <c r="E23" s="5">
+        <f>SUMIFS('Data Collection'!E:E, 'Data Collection'!A:A, Total!A23)</f>
+        <v>1.1400000000000001</v>
+      </c>
+      <c r="F23" s="5">
+        <f>SUMIFS('Data Collection'!F:F, 'Data Collection'!A:A, Total!A23)</f>
+        <v>1.55</v>
+      </c>
+      <c r="G23" s="5">
+        <f>SUMIFS('Data Collection'!G:G, 'Data Collection'!A:A, Total!A23)</f>
+        <v>1.1400000000000001</v>
+      </c>
+      <c r="H23" s="5">
+        <f>SUMIFS('Data Collection'!H:H, 'Data Collection'!A:A, Total!A23)</f>
+        <v>1.6199999999999999</v>
+      </c>
+      <c r="I23" s="5">
+        <f>SUMIFS('Data Collection'!I:I, 'Data Collection'!A:A, Total!A23)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="5">
+        <f>SUMIFS('Data Collection'!J:J, 'Data Collection'!A:A, Total!A23)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="5">
+        <f>SUMIFS('Data Collection'!K:K, 'Data Collection'!A:A, Total!A23)</f>
+        <v>1</v>
+      </c>
+      <c r="L23" s="5">
+        <f>SUMIFS('Data Collection'!L:L, 'Data Collection'!A:A, Total!A23)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="5">
+        <f>SUMIFS('Data Collection'!M:M, 'Data Collection'!A:A, Total!A23)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="5">
+        <f>SUMIFS('Data Collection'!N:N, 'Data Collection'!A:A, Total!A23)</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="5">
+        <f>SUMIFS('Data Collection'!O:O, 'Data Collection'!A:A, Total!A23)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="5">
+        <f>SUMIFS('Data Collection'!P:P, 'Data Collection'!A:A, Total!A23)</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="5">
+        <f>SUMIFS('Data Collection'!Q:Q, 'Data Collection'!A:A, Total!A23)</f>
+        <v>3</v>
+      </c>
+      <c r="R23" s="5">
+        <f>SUMIFS('Data Collection'!R:R, 'Data Collection'!A:A, Total!A23)</f>
+        <v>3</v>
+      </c>
+      <c r="S23" s="5">
+        <f>SUMIFS('Data Collection'!S:S, 'Data Collection'!A:A, Total!A23)</f>
+        <v>3</v>
+      </c>
+      <c r="T23" s="5">
+        <f>SUMIFS('Data Collection'!T:T, 'Data Collection'!A:A, Total!A23)</f>
+        <v>19</v>
+      </c>
+      <c r="U23" s="5">
+        <f>SUMIFS('Data Collection'!U:U, 'Data Collection'!A:A, Total!A23)</f>
+        <v>26</v>
+      </c>
+      <c r="V23" s="14">
+        <f t="shared" ref="V23" si="6">IFERROR(IF(T23/U23=0, 0, T23/U23), 0)</f>
+        <v>0.73076923076923073</v>
+      </c>
+      <c r="W23" s="5">
+        <f>SUMIFS('Data Collection'!W:W, 'Data Collection'!A:A, Total!A23)</f>
+        <v>315</v>
+      </c>
+      <c r="X23" s="5">
+        <f>SUMIFS('Data Collection'!X:X, 'Data Collection'!A:A, Total!A23)</f>
+        <v>123</v>
+      </c>
+      <c r="Y23" s="5">
+        <f>SUMIFS('Data Collection'!Y:Y, 'Data Collection'!A:A, Total!A23)</f>
+        <v>193</v>
+      </c>
+      <c r="Z23" s="14">
+        <f t="shared" ref="Z23" si="7">IFERROR(IF(X23/Y23=0, 0, X23/Y23), 0)</f>
+        <v>0.63730569948186533</v>
+      </c>
+      <c r="AA23" s="5">
+        <f>SUMIFS('Data Collection'!AA:AA, 'Data Collection'!A:A, Total!A23)</f>
+        <v>13</v>
+      </c>
+      <c r="AB23" s="5">
+        <f>SUMIFS('Data Collection'!AB:AB, 'Data Collection'!A:A, Total!A23)</f>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="5">
+        <f>SUMIFS('Data Collection'!AC:AC, 'Data Collection'!A:A, Total!A23)</f>
+        <v>1</v>
+      </c>
+      <c r="AD23" s="5">
+        <f>SUMIFS('Data Collection'!AD:AD, 'Data Collection'!A:A, Total!A23)</f>
+        <v>3</v>
+      </c>
+      <c r="AE23" s="5">
+        <f>SUMIFS('Data Collection'!AE:AE, 'Data Collection'!A:A, Total!A23)</f>
+        <v>5</v>
+      </c>
+      <c r="AF23" s="14">
+        <f t="shared" ref="AF23" si="8">IFERROR(IF(AD23/AE23=0, 0, AD23/AE23), 0)</f>
+        <v>0.6</v>
+      </c>
+      <c r="AG23" s="5">
+        <f>SUMIFS('Data Collection'!AG:AG, 'Data Collection'!A:A, Total!A23)</f>
+        <v>9</v>
+      </c>
+      <c r="AH23" s="5">
+        <f>SUMIFS('Data Collection'!AH:AH, 'Data Collection'!A:A, Total!A23)</f>
+        <v>21</v>
+      </c>
+      <c r="AI23" s="14">
+        <f t="shared" ref="AI23" si="9">IFERROR(IF(AG23/AH23=0, 0, AG23/AH23), 0)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AJ23" s="5">
+        <f>SUMIFS('Data Collection'!AJ:AJ, 'Data Collection'!A:A, Total!A23)</f>
+        <v>42</v>
+      </c>
+      <c r="AK23" s="5">
+        <f>SUMIFS('Data Collection'!AK:AK, 'Data Collection'!A:A, Total!A23)</f>
+        <v>102</v>
+      </c>
+      <c r="AL23" s="14">
+        <f t="shared" ref="AL23" si="10">IFERROR(IF(AJ23/AK23=0, 0, AJ23/AK23), 0)</f>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="AM23" s="5">
+        <f>SUMIFS('Data Collection'!AM:AM, 'Data Collection'!A:A, Total!A23)</f>
+        <v>2</v>
+      </c>
+      <c r="AN23" s="5">
+        <f>SUMIFS('Data Collection'!AN:AN, 'Data Collection'!A:A, Total!A23)</f>
+        <v>8</v>
+      </c>
+      <c r="AO23" s="14">
+        <f t="shared" ref="AO23" si="11">IFERROR(IF(AM23/AN23=0, 0, AM23/AN23), 0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="AP23" s="5">
+        <f>SUMIFS('Data Collection'!AP:AP, 'Data Collection'!A:A, Total!A23)</f>
+        <v>74</v>
+      </c>
+      <c r="AQ23" s="5">
+        <f>SUMIFS('Data Collection'!AQ:AQ, 'Data Collection'!A:A, Total!A23)</f>
+        <v>6</v>
+      </c>
+      <c r="AR23" s="5">
+        <f>SUMIFS('Data Collection'!AR:AR, 'Data Collection'!A:A, Total!A23)</f>
+        <v>7</v>
+      </c>
+      <c r="AS23" s="5">
+        <f>SUMIFS('Data Collection'!AS:AS, 'Data Collection'!A:A, Total!A23)</f>
+        <v>0</v>
+      </c>
+      <c r="AT23" s="5">
+        <f>SUMIFS('Data Collection'!AT:AT, 'Data Collection'!A:A, Total!A23)</f>
+        <v>2</v>
+      </c>
+      <c r="AU23" s="5">
+        <f>SUMIFS('Data Collection'!AU:AU, 'Data Collection'!A:A, Total!A23)</f>
+        <v>1</v>
+      </c>
+      <c r="AV23" s="5">
+        <f>SUMIFS('Data Collection'!AV:AV, 'Data Collection'!A:A, Total!A23)</f>
+        <v>7</v>
+      </c>
+      <c r="AW23" s="5">
+        <f>SUMIFS('Data Collection'!AW:AW, 'Data Collection'!A:A, Total!A23)</f>
+        <v>0</v>
+      </c>
+      <c r="AX23" s="5">
+        <f>SUMIFS('Data Collection'!AX:AX, 'Data Collection'!A:A, Total!A23)</f>
+        <v>12</v>
+      </c>
+      <c r="AY23" s="5">
+        <f>SUMIFS('Data Collection'!AY:AY, 'Data Collection'!A:A, Total!A23)</f>
+        <v>1</v>
+      </c>
+      <c r="AZ23" s="5">
+        <f>SUMIFS('Data Collection'!AZ:AZ, 'Data Collection'!A:A, Total!A23)</f>
+        <v>0</v>
+      </c>
+      <c r="BA23" s="5">
+        <f>SUMIFS('Data Collection'!BA:BA, 'Data Collection'!A:A, Total!A23)</f>
+        <v>1</v>
+      </c>
+      <c r="BB23" s="5">
+        <f>SUMIFS('Data Collection'!BB:BB, 'Data Collection'!A:A, Total!A23)</f>
+        <v>0</v>
+      </c>
+      <c r="BC23" s="5">
+        <f>SUMIFS('Data Collection'!BC:BC, 'Data Collection'!A:A, Total!A23)</f>
+        <v>7.358771663119489</v>
+      </c>
+      <c r="BD23" s="5">
+        <f>SUMIFS('Data Collection'!BD:BD, 'Data Collection'!A:A, Total!A23)</f>
+        <v>0</v>
+      </c>
+      <c r="BE23" s="5" t="e">
+        <f>AVERAGEIFS('Data Collection'!BE:BE, 'Data Collection'!A:A, Total!A23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BF23" s="5" t="e">
+        <f>AVERAGEIFS('Data Collection'!BF:BF, 'Data Collection'!A:A, Total!A23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BG23" s="5">
+        <f>AVERAGEIFS('Data Collection'!BK:BK, 'Data Collection'!A:A, Total!A23)</f>
+        <v>28.340000000000003</v>
+      </c>
+      <c r="BH23" s="5">
+        <f>SUMIFS('Data Collection'!BL:BL, 'Data Collection'!A:A, Total!A23)</f>
+        <v>57354</v>
+      </c>
+      <c r="BI23" s="5" t="e">
+        <f>AVERAGEIFS('Data Collection'!BM:BM, 'Data Collection'!A:A, Total!A23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="BJ23" s="5" t="e">
+        <f>AVERAGEIFS('Data Collection'!BN:BN, 'Data Collection'!A:A, Total!A23)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6265,7 +6514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F147CBC-EA4A-4794-AE4C-21D4ECCACBF5}">
   <dimension ref="A1:BN338"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection sqref="A1:BN338"/>
     </sheetView>
   </sheetViews>
